--- a/chapter7/Chapter7-HW.xlsx
+++ b/chapter7/Chapter7-HW.xlsx
@@ -398,7 +398,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       2. University Hospital, Zurich, Switzerland: William Steinbrunn, M.D.</a:t>
+            <a:t>2. University Hospital, Zurich, Switzerland: William Steinbrunn, M.D.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -411,7 +411,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       3. University Hospital, Basel, Switzerland: Matthias Pfisterer, M.D.</a:t>
+            <a:t>3. University Hospital, Basel, Switzerland: Matthias Pfisterer, M.D.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -424,7 +424,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       4. V.A. Medical Center, Long Beach and Cleveland Clinic Foundation:</a:t>
+            <a:t>4. V.A. Medical Center, Long Beach and Cleveland Clinic Foundation:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>

--- a/chapter7/Chapter7-HW.xlsx
+++ b/chapter7/Chapter7-HW.xlsx
@@ -18,8 +18,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Compute the maximum of Age in B1, Minimun of Age in B2, then autofill to column N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is where you calculate the distance, reciprocal and weight of the training data to the scoring data point (sotred at row 305)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Age</t>
   </si>
@@ -77,12 +125,45 @@
   <si>
     <t>Target</t>
   </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>Relative to the predicted record</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Reciprocal</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Record to be predicted, normalized</t>
+  </si>
+  <si>
+    <t>Predictions based on KNN with different k values</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Max Weight</t>
+  </si>
+  <si>
+    <t>num (Angiographic Disease Status)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +189,40 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,7 +287,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -196,16 +319,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -214,7 +337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="104775"/>
+          <a:off x="1752600" y="1400175"/>
           <a:ext cx="5664200" cy="6664325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -346,11 +469,19 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>You</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>r job is to use the dataset inside B5:O302 to predict the target value (Num) for the record in row 305 by using KNN method.</a:t>
           </a:r>
         </a:p>
@@ -739,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="AH311" sqref="AH311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,22 +882,42 @@
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AE4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,8 +961,56 @@
         <v>13</v>
       </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>63</v>
       </c>
@@ -855,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
@@ -899,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>67</v>
       </c>
@@ -943,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>37</v>
       </c>
@@ -987,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>41</v>
       </c>
@@ -1031,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>56</v>
       </c>
@@ -1075,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>62</v>
       </c>
@@ -1119,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>57</v>
       </c>
@@ -1163,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>63</v>
       </c>
@@ -1207,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>53</v>
       </c>
@@ -1251,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>57</v>
       </c>
@@ -13270,7 +13469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>56</v>
       </c>
@@ -13315,7 +13514,7 @@
       </c>
       <c r="P289" s="1"/>
     </row>
-    <row r="290" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>56</v>
       </c>
@@ -13359,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>67</v>
       </c>
@@ -13403,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>55</v>
       </c>
@@ -13447,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>44</v>
       </c>
@@ -13491,7 +13690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>63</v>
       </c>
@@ -13535,7 +13734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>63</v>
       </c>
@@ -13579,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>41</v>
       </c>
@@ -13623,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>59</v>
       </c>
@@ -13667,7 +13866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>57</v>
       </c>
@@ -13711,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>45</v>
       </c>
@@ -13755,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>68</v>
       </c>
@@ -13799,7 +13998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>57</v>
       </c>
@@ -13843,7 +14042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>57</v>
       </c>
@@ -13887,24 +14086,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B304" s="6" t="s">
+    <row r="304" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B304" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
-      <c r="I304" s="6"/>
-      <c r="J304" s="6"/>
-      <c r="K304" s="6"/>
-      <c r="L304" s="6"/>
-      <c r="M304" s="6"/>
-      <c r="N304" s="6"/>
-    </row>
-    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="Q304" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R304" s="12"/>
+      <c r="S304" s="12"/>
+      <c r="T304" s="12"/>
+      <c r="U304" s="12"/>
+      <c r="V304" s="12"/>
+      <c r="W304" s="12"/>
+      <c r="X304" s="12"/>
+      <c r="Y304" s="12"/>
+      <c r="Z304" s="12"/>
+      <c r="AA304" s="12"/>
+      <c r="AB304" s="12"/>
+      <c r="AC304" s="12"/>
+      <c r="AE304" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF304" s="11"/>
+      <c r="AG304" s="11"/>
+      <c r="AH304" s="11"/>
+      <c r="AI304" s="11"/>
+      <c r="AJ304" s="11"/>
+      <c r="AK304" s="11"/>
+      <c r="AL304" s="11"/>
+      <c r="AM304" s="11"/>
+    </row>
+    <row r="305" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B305" s="4">
         <v>33</v>
       </c>
@@ -13947,15 +14172,97 @@
       <c r="O305" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="AE305" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF305" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG305" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH305" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI305" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ305" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK305" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL305" s="6">
+        <v>4</v>
+      </c>
+      <c r="AM305" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O306" s="3"/>
+      <c r="AE306" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF306" s="8"/>
+      <c r="AG306" s="9"/>
+      <c r="AH306" s="9"/>
+      <c r="AI306" s="9"/>
+      <c r="AJ306" s="9"/>
+      <c r="AK306" s="9"/>
+      <c r="AL306" s="9"/>
+      <c r="AM306" s="10"/>
+    </row>
+    <row r="307" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE307" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF307" s="8"/>
+      <c r="AG307" s="9"/>
+      <c r="AH307" s="9"/>
+      <c r="AI307" s="9"/>
+      <c r="AJ307" s="9"/>
+      <c r="AK307" s="9"/>
+      <c r="AL307" s="9"/>
+      <c r="AM307" s="10"/>
+    </row>
+    <row r="308" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE308" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF308" s="8"/>
+      <c r="AG308" s="9"/>
+      <c r="AH308" s="9"/>
+      <c r="AI308" s="9"/>
+      <c r="AJ308" s="9"/>
+      <c r="AK308" s="9"/>
+      <c r="AL308" s="9"/>
+      <c r="AM308" s="10"/>
+    </row>
+    <row r="309" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE309" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF309" s="8"/>
+      <c r="AG309" s="9"/>
+      <c r="AH309" s="9"/>
+      <c r="AI309" s="9"/>
+      <c r="AJ309" s="9"/>
+      <c r="AK309" s="9"/>
+      <c r="AL309" s="9"/>
+      <c r="AM309" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B304:N304"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q304:AC304"/>
+    <mergeCell ref="AE304:AM304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>